--- a/KodaVinnsla/Maelingar/Hitamælingar_með_viftu5.xlsx
+++ b/KodaVinnsla/Maelingar/Hitamælingar_með_viftu5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rúnar U\Documents\Skóli\Tölvunarfræði\Örtölvu- og mælitækni\Hópverkefni - Hönnun\H-nnunarverkefni-rt-lvu-og-m-lit-kni-2020\KodaVinnsla\Maelingar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E4C77E-855B-4AD1-8001-6BEFC0DB3655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD759CB3-A1E1-429A-B627-71AB5F39E762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t xml:space="preserve"> hitastig</t>
   </si>
@@ -93,12 +93,27 @@
   <si>
     <t># tími</t>
   </si>
+  <si>
+    <t>endar</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>jafnv.hiti</t>
+  </si>
+  <si>
+    <t>hiti á T</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,13 +121,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,8 +155,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1343,6 +1373,9 @@
                 <c:pt idx="361">
                   <c:v>718.62</c:v>
                 </c:pt>
+                <c:pt idx="362">
+                  <c:v>718.62</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2468,7 +2501,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$42:$I$42</c:f>
+              <c:f>Sheet1!$I$42:$J$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2483,7 +2516,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$29:$N$30</c:f>
+              <c:f>Sheet1!$O$29:$O$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2523,7 +2556,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$43:$I$43</c:f>
+              <c:f>Sheet1!$I$43:$J$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2538,7 +2571,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$29:$N$30</c:f>
+              <c:f>Sheet1!$O$29:$O$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2578,7 +2611,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$44:$I$44</c:f>
+              <c:f>Sheet1!$I$44:$J$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2593,7 +2626,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$29:$N$30</c:f>
+              <c:f>Sheet1!$O$29:$O$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2633,7 +2666,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$45:$I$45</c:f>
+              <c:f>Sheet1!$I$45:$J$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2648,7 +2681,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$29:$N$30</c:f>
+              <c:f>Sheet1!$O$29:$O$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2688,7 +2721,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$46:$I$46</c:f>
+              <c:f>Sheet1!$I$46:$J$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2703,7 +2736,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$29:$N$30</c:f>
+              <c:f>Sheet1!$O$29:$O$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2745,7 +2778,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$47:$I$47</c:f>
+              <c:f>Sheet1!$I$47:$J$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2760,7 +2793,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$29:$N$30</c:f>
+              <c:f>Sheet1!$O$29:$O$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2802,7 +2835,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$48:$I$48</c:f>
+              <c:f>Sheet1!$I$48:$J$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2817,7 +2850,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$29:$N$30</c:f>
+              <c:f>Sheet1!$O$29:$O$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2859,7 +2892,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$49:$I$49</c:f>
+              <c:f>Sheet1!$I$49:$J$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2874,7 +2907,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$29:$N$30</c:f>
+              <c:f>Sheet1!$O$29:$O$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3755,13 +3788,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4055,10 +4088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N631"/>
+  <dimension ref="A1:O631"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4398,7 +4431,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>18.32</v>
       </c>
@@ -4419,7 +4452,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>19.68</v>
       </c>
@@ -4440,7 +4473,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20.68</v>
       </c>
@@ -4461,7 +4494,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>22.12</v>
       </c>
@@ -4482,7 +4515,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>23.12</v>
       </c>
@@ -4503,7 +4536,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>24.56</v>
       </c>
@@ -4524,7 +4557,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>25.56</v>
       </c>
@@ -4545,7 +4578,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>27</v>
       </c>
@@ -4566,7 +4599,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28</v>
       </c>
@@ -4587,7 +4620,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>29.43</v>
       </c>
@@ -4607,11 +4640,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>30.44</v>
       </c>
@@ -4631,17 +4664,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>6</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>5</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>31.87</v>
       </c>
@@ -4661,23 +4694,23 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>0</v>
       </c>
-      <c r="H28">
-        <f>_xlfn.MINIFS($A$2:$A$631,$C$2:$C$631,1,$D$2:$D$631,G28)</f>
+      <c r="I28">
+        <f>_xlfn.MINIFS($A$2:$A$631,$C$2:$C$631,1,$D$2:$D$631,H28)</f>
         <v>0</v>
       </c>
-      <c r="I28">
-        <f>H28</f>
+      <c r="J28">
+        <f>I28</f>
         <v>0</v>
       </c>
-      <c r="J28">
-        <f>_xlfn.MAXIFS($F$2:$F$631,$C$2:$C$631,1,$D$2:$D$631,G28)</f>
+      <c r="K28">
+        <f>_xlfn.MAXIFS($F$2:$F$631,$C$2:$C$631,1,$D$2:$D$631,H28)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>32.869999999999997</v>
       </c>
@@ -4697,30 +4730,30 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G29">
-        <v>10</v>
-      </c>
       <c r="H29">
-        <f>_xlfn.MINIFS($A$2:$A$631,$C$2:$C$631,1,$D$2:$D$631,G29)</f>
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <f>_xlfn.MINIFS($A$2:$A$631,$C$2:$C$631,1,$D$2:$D$631,H29)</f>
         <v>0.43</v>
       </c>
-      <c r="I29">
-        <f t="shared" ref="I29:I38" si="1">H29</f>
+      <c r="J29">
+        <f t="shared" ref="J29:J38" si="1">I29</f>
         <v>0.43</v>
       </c>
-      <c r="J29">
-        <f t="shared" ref="J29:J38" si="2">_xlfn.MAXIFS($F$2:$F$631,$C$2:$C$631,1,$D$2:$D$631,G29)</f>
+      <c r="K29">
+        <f t="shared" ref="K29:K38" si="2">_xlfn.MAXIFS($F$2:$F$631,$C$2:$C$631,1,$D$2:$D$631,H29)</f>
         <v>672.39</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>7</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <f>CEILING(MAX($B$2:$B$631),10)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>34.299999999999997</v>
       </c>
@@ -4740,29 +4773,29 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>20</v>
       </c>
-      <c r="H30">
-        <f t="shared" ref="H30:H38" si="3">_xlfn.MINIFS($A$2:$A$631,$C$2:$C$631,1,$D$2:$D$631,G30)</f>
+      <c r="I30">
+        <f t="shared" ref="I30:I38" si="3">_xlfn.MINIFS($A$2:$A$631,$C$2:$C$631,1,$D$2:$D$631,H30)</f>
         <v>0</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>8</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>35.299999999999997</v>
       </c>
@@ -4782,30 +4815,30 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>30</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L31" t="s">
-        <v>10</v>
-      </c>
-      <c r="N31">
+      <c r="M31" t="s">
+        <v>10</v>
+      </c>
+      <c r="O31">
         <f>_xlfn.MAXIFS($F$2:$F$631,$C$2:$C$631,0,$D$2:$D$631,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>36.74</v>
       </c>
@@ -4826,22 +4859,26 @@
         <v/>
       </c>
       <c r="G32">
+        <f>AVERAGE(B23:B32)</f>
+        <v>19.650000000000002</v>
+      </c>
+      <c r="H32">
         <v>40</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>37.74</v>
       </c>
@@ -4861,23 +4898,23 @@
         <f t="shared" si="0"/>
         <v>37.74</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>50</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>39.17</v>
       </c>
@@ -4897,23 +4934,23 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>60</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>40.18</v>
       </c>
@@ -4933,23 +4970,23 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>70</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>41.61</v>
       </c>
@@ -4969,23 +5006,23 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>80</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>42.61</v>
       </c>
@@ -5005,23 +5042,23 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G37">
-        <v>90</v>
-      </c>
       <c r="H37">
+        <v>90</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="3"/>
         <v>37.74</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <f t="shared" si="1"/>
         <v>37.74</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <f t="shared" si="2"/>
         <v>620.26</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>44.05</v>
       </c>
@@ -5041,23 +5078,23 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>100</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>45.05</v>
       </c>
@@ -5078,7 +5115,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>51.2</v>
       </c>
@@ -5098,8 +5135,29 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" t="s">
+        <v>12</v>
+      </c>
+      <c r="K40" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" t="s">
+        <v>15</v>
+      </c>
+      <c r="M40" t="s">
+        <v>13</v>
+      </c>
+      <c r="N40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>52.2</v>
       </c>
@@ -5119,12 +5177,16 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H41" t="str" cm="1">
-        <f t="array" ref="H41:H50">_xlfn.UNIQUE(F3:F400)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I41" t="str" cm="1">
+        <f t="array" ref="I41:I50">_xlfn.UNIQUE(F3:F400)</f>
+        <v/>
+      </c>
+      <c r="K41" cm="1">
+        <f t="array" ref="K41:K50">_xlfn.UNIQUE($G$2:$G$363)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>53.65</v>
       </c>
@@ -5144,18 +5206,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G42">
-        <v>90</v>
-      </c>
       <c r="H42">
+        <v>90</v>
+      </c>
+      <c r="I42">
         <v>37.74</v>
       </c>
-      <c r="I42">
-        <f>H42</f>
+      <c r="J42">
+        <f>I42</f>
         <v>37.74</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42">
+        <v>19.650000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>54.65</v>
       </c>
@@ -5175,18 +5240,33 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G43">
-        <v>10</v>
-      </c>
       <c r="H43">
+        <v>10</v>
+      </c>
+      <c r="I43">
         <v>110.32</v>
       </c>
-      <c r="I43">
-        <f t="shared" ref="I43:I51" si="4">H43</f>
+      <c r="J43">
+        <f t="shared" ref="J43:J50" si="4">I43</f>
         <v>110.32</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43">
+        <v>19.96</v>
+      </c>
+      <c r="L43">
+        <f>K42+0.63*(K43-K42)</f>
+        <v>19.845300000000002</v>
+      </c>
+      <c r="M43">
+        <f>_xlfn.MINIFS($A$2:$A$363,$A$2:$A$363, "&gt;" &amp; I42,$A$2:$A$363, "&lt;"&amp;I43,$B$2:$B$363, "&gt;"&amp;L43)</f>
+        <v>51.2</v>
+      </c>
+      <c r="N43">
+        <f>K43-K42</f>
+        <v>0.30999999999999872</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>56.08</v>
       </c>
@@ -5206,18 +5286,33 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G44">
-        <v>90</v>
-      </c>
       <c r="H44">
+        <v>90</v>
+      </c>
+      <c r="I44">
         <v>211.58</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <f t="shared" si="4"/>
         <v>211.58</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44">
+        <v>23.34</v>
+      </c>
+      <c r="L44">
+        <f>K43+0.63*(K44-K43)</f>
+        <v>22.089400000000001</v>
+      </c>
+      <c r="M44">
+        <f>_xlfn.MINIFS($A$2:$A$363,$A$2:$A$363, "&gt;" &amp; I43,$A$2:$A$363, "&lt;"&amp;I44,$B$2:$B$363, "&gt;"&amp;L44)-I43</f>
+        <v>76.300000000000011</v>
+      </c>
+      <c r="N44">
+        <f t="shared" ref="N44:N50" si="5">K44-K43</f>
+        <v>3.379999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>57.09</v>
       </c>
@@ -5237,18 +5332,33 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G45">
-        <v>10</v>
-      </c>
       <c r="H45">
+        <v>10</v>
+      </c>
+      <c r="I45">
         <v>428.82</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <f t="shared" si="4"/>
         <v>428.82</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45">
+        <v>21.52</v>
+      </c>
+      <c r="L45">
+        <f>K44+0.63*(K45-K44)</f>
+        <v>22.1934</v>
+      </c>
+      <c r="M45">
+        <f>_xlfn.MINIFS($A$2:$A$363,$A$2:$A$363, "&gt;" &amp; I44,$A$2:$A$363, "&lt;"&amp;I45,$B$2:$B$363, "&lt;"&amp;L45)-I44</f>
+        <v>47.41</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="5"/>
+        <v>-1.8200000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>58.52</v>
       </c>
@@ -5268,18 +5378,33 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G46">
-        <v>90</v>
-      </c>
       <c r="H46">
+        <v>90</v>
+      </c>
+      <c r="I46">
         <v>518.28</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <f t="shared" si="4"/>
         <v>518.28</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46">
+        <v>24.919999999999998</v>
+      </c>
+      <c r="L46">
+        <f>K45+0.63*(K46-K45)</f>
+        <v>23.661999999999999</v>
+      </c>
+      <c r="M46" s="1">
+        <f>_xlfn.MINIFS($A$2:$A$363,$A$2:$A$363, "&gt;" &amp; I45,$A$2:$A$363, "&lt;"&amp;I46,$B$2:$B$363, "&gt;"&amp;L46)-I45</f>
+        <v>36.160000000000025</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="5"/>
+        <v>3.3999999999999986</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>59.52</v>
       </c>
@@ -5299,18 +5424,33 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G47">
-        <v>10</v>
-      </c>
       <c r="H47">
+        <v>10</v>
+      </c>
+      <c r="I47">
         <v>575.15</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <f t="shared" si="4"/>
         <v>575.15</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47">
+        <v>23.24</v>
+      </c>
+      <c r="L47">
+        <f>K46+0.63*(K47-K46)</f>
+        <v>23.861599999999999</v>
+      </c>
+      <c r="M47" s="1">
+        <f>_xlfn.MINIFS($A$2:$A$363,$A$2:$A$363, "&gt;" &amp; I46,$A$2:$A$363, "&lt;"&amp;I47,$B$2:$B$363, "&lt;"&amp;L47)-I46</f>
+        <v>31.540000000000077</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="5"/>
+        <v>-1.6799999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>60.95</v>
       </c>
@@ -5330,18 +5470,33 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G48">
-        <v>90</v>
-      </c>
       <c r="H48">
+        <v>90</v>
+      </c>
+      <c r="I48">
         <v>620.26</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <f t="shared" si="4"/>
         <v>620.26</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K48">
+        <v>23.980000000000004</v>
+      </c>
+      <c r="L48">
+        <f>K47+0.63*(K48-K47)</f>
+        <v>23.706200000000003</v>
+      </c>
+      <c r="M48" s="1">
+        <f>_xlfn.MINIFS($A$2:$A$363,$A$2:$A$363, "&gt;" &amp; I47,$A$2:$A$363, "&lt;"&amp;I48,$B$2:$B$363, "&gt;"&amp;L48)-I47</f>
+        <v>25.680000000000064</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="5"/>
+        <v>0.74000000000000554</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>61.95</v>
       </c>
@@ -5361,18 +5516,33 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G49">
-        <v>10</v>
-      </c>
       <c r="H49">
+        <v>10</v>
+      </c>
+      <c r="I49">
         <v>672.39</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <f t="shared" si="4"/>
         <v>672.39</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K49">
+        <v>22.360000000000003</v>
+      </c>
+      <c r="L49">
+        <f>K48+0.63*(K49-K48)</f>
+        <v>22.959400000000002</v>
+      </c>
+      <c r="M49" s="1">
+        <f>_xlfn.MINIFS($A$2:$A$363,$A$2:$A$363, "&gt;" &amp; I48,$A$2:$A$363, "&lt;"&amp;I49,$B$2:$B$363, "&lt;"&amp;L49)-I48</f>
+        <v>24.330000000000041</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="5"/>
+        <v>-1.620000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>63.39</v>
       </c>
@@ -5392,11 +5562,30 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I50">
+        <v>718.62</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="4"/>
+        <v>718.62</v>
+      </c>
+      <c r="K50">
+        <v>23.52</v>
+      </c>
+      <c r="L50">
+        <f>K49+0.63*(K50-K49)</f>
+        <v>23.090800000000002</v>
+      </c>
+      <c r="M50" s="1">
+        <f>_xlfn.MINIFS($A$2:$A$363,$A$2:$A$363, "&gt;" &amp; I49,$A$2:$A$363, "&lt;"&amp;I50,$B$2:$B$363, "&gt;"&amp;L50)-I49</f>
+        <v>23.32000000000005</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="5"/>
+        <v>1.1599999999999966</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>64.39</v>
       </c>
@@ -5417,7 +5606,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>65.819999999999993</v>
       </c>
@@ -5438,7 +5627,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>66.819999999999993</v>
       </c>
@@ -5458,8 +5647,16 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M53" s="2" cm="1">
+        <f t="array" ref="M53">AVERAGE(ABS(M46:M50))</f>
+        <v>28.206000000000053</v>
+      </c>
+      <c r="N53" s="2" cm="1">
+        <f t="array" ref="N53">AVERAGE(ABS(N46:N50))</f>
+        <v>1.7200000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>68.260000000000005</v>
       </c>
@@ -5480,7 +5677,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>69.260000000000005</v>
       </c>
@@ -5501,7 +5698,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>70.58</v>
       </c>
@@ -5522,7 +5719,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>71.58</v>
       </c>
@@ -5543,7 +5740,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>80.290000000000006</v>
       </c>
@@ -5564,7 +5761,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>81.290000000000006</v>
       </c>
@@ -5585,7 +5782,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>106.88</v>
       </c>
@@ -5606,7 +5803,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>107.89</v>
       </c>
@@ -5627,7 +5824,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>109.32</v>
       </c>
@@ -5647,8 +5844,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G62">
+        <f>AVERAGE(B53:B62)</f>
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>110.32</v>
       </c>
@@ -5669,7 +5870,7 @@
         <v>110.32</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>114.08</v>
       </c>
@@ -5770,7 +5971,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" ref="F68:F131" si="5">IF(D68=D67,"",A68)</f>
+        <f t="shared" ref="F68:F131" si="6">IF(D68=D67,"",A68)</f>
         <v/>
       </c>
     </row>
@@ -5791,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5812,7 +6013,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5833,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5854,7 +6055,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5875,7 +6076,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5896,7 +6097,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5917,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5938,7 +6139,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5959,7 +6160,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5980,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6001,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6022,11 +6223,11 @@
         <v>1</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>197.35</v>
       </c>
@@ -6043,11 +6244,11 @@
         <v>1</v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>198.78</v>
       </c>
@@ -6064,11 +6265,11 @@
         <v>1</v>
       </c>
       <c r="F82" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>199.78</v>
       </c>
@@ -6085,11 +6286,11 @@
         <v>1</v>
       </c>
       <c r="F83" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>201.22</v>
       </c>
@@ -6106,11 +6307,11 @@
         <v>1</v>
       </c>
       <c r="F84" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>202.22</v>
       </c>
@@ -6127,11 +6328,11 @@
         <v>1</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>203.49</v>
       </c>
@@ -6148,11 +6349,11 @@
         <v>1</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>204.49</v>
       </c>
@@ -6169,11 +6370,11 @@
         <v>1</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>205.82</v>
       </c>
@@ -6190,11 +6391,11 @@
         <v>1</v>
       </c>
       <c r="F88" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>206.82</v>
       </c>
@@ -6211,11 +6412,11 @@
         <v>1</v>
       </c>
       <c r="F89" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>208.26</v>
       </c>
@@ -6232,11 +6433,11 @@
         <v>1</v>
       </c>
       <c r="F90" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>209.26</v>
       </c>
@@ -6253,11 +6454,11 @@
         <v>1</v>
       </c>
       <c r="F91" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>210.58</v>
       </c>
@@ -6274,11 +6475,15 @@
         <v>1</v>
       </c>
       <c r="F92" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G92">
+        <f>AVERAGE(B83:B92)</f>
+        <v>23.34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>211.58</v>
       </c>
@@ -6295,11 +6500,11 @@
         <v>1</v>
       </c>
       <c r="F93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>211.58</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>213.03</v>
       </c>
@@ -6316,11 +6521,11 @@
         <v>1</v>
       </c>
       <c r="F94" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>214.03</v>
       </c>
@@ -6337,11 +6542,11 @@
         <v>1</v>
       </c>
       <c r="F95" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>215.46</v>
       </c>
@@ -6358,7 +6563,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6379,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6400,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6421,7 +6626,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6442,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6463,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6484,7 +6689,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6505,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6526,7 +6731,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6547,7 +6752,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6568,7 +6773,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6589,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6610,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6631,7 +6836,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6652,7 +6857,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6673,7 +6878,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6694,7 +6899,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6715,7 +6920,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6736,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6757,7 +6962,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6778,7 +6983,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6799,7 +7004,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6820,7 +7025,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6841,7 +7046,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6862,7 +7067,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6883,7 +7088,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6904,7 +7109,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6925,7 +7130,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6946,7 +7151,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6967,7 +7172,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6988,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -7009,7 +7214,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -7030,7 +7235,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -7051,7 +7256,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -7072,7 +7277,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -7093,7 +7298,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -7114,7 +7319,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="str">
-        <f t="shared" ref="F132:F195" si="6">IF(D132=D131,"",A132)</f>
+        <f t="shared" ref="F132:F195" si="7">IF(D132=D131,"",A132)</f>
         <v/>
       </c>
     </row>
@@ -7135,7 +7340,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7156,7 +7361,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7177,7 +7382,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7198,7 +7403,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7219,7 +7424,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7240,7 +7445,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7261,7 +7466,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7282,7 +7487,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7303,7 +7508,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7324,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7345,7 +7550,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7366,11 +7571,11 @@
         <v>1</v>
       </c>
       <c r="F144" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>420.09</v>
       </c>
@@ -7387,11 +7592,11 @@
         <v>1</v>
       </c>
       <c r="F145" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>421.52</v>
       </c>
@@ -7408,11 +7613,11 @@
         <v>1</v>
       </c>
       <c r="F146" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>422.52</v>
       </c>
@@ -7429,11 +7634,11 @@
         <v>1</v>
       </c>
       <c r="F147" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>423.95</v>
       </c>
@@ -7450,11 +7655,11 @@
         <v>1</v>
       </c>
       <c r="F148" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>424.95</v>
       </c>
@@ -7471,11 +7676,11 @@
         <v>1</v>
       </c>
       <c r="F149" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>426.39</v>
       </c>
@@ -7492,11 +7697,11 @@
         <v>1</v>
       </c>
       <c r="F150" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>427.39</v>
       </c>
@@ -7513,11 +7718,15 @@
         <v>1</v>
       </c>
       <c r="F151" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G151">
+        <f>AVERAGE(B142:B151)</f>
+        <v>21.52</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>428.82</v>
       </c>
@@ -7534,11 +7743,11 @@
         <v>1</v>
       </c>
       <c r="F152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>428.82</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>429.82</v>
       </c>
@@ -7555,11 +7764,11 @@
         <v>1</v>
       </c>
       <c r="F153" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>431.26</v>
       </c>
@@ -7576,11 +7785,11 @@
         <v>1</v>
       </c>
       <c r="F154" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>432.26</v>
       </c>
@@ -7597,11 +7806,11 @@
         <v>1</v>
       </c>
       <c r="F155" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>436.12</v>
       </c>
@@ -7618,11 +7827,11 @@
         <v>1</v>
       </c>
       <c r="F156" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>437.12</v>
       </c>
@@ -7639,11 +7848,11 @@
         <v>1</v>
       </c>
       <c r="F157" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>457.79</v>
       </c>
@@ -7660,11 +7869,11 @@
         <v>1</v>
       </c>
       <c r="F158" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>458.79</v>
       </c>
@@ -7681,11 +7890,11 @@
         <v>1</v>
       </c>
       <c r="F159" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>462.65</v>
       </c>
@@ -7702,7 +7911,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7723,7 +7932,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7744,7 +7953,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7765,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7786,7 +7995,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7807,7 +8016,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7828,7 +8037,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7849,7 +8058,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7870,7 +8079,7 @@
         <v>1</v>
       </c>
       <c r="F168" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7891,7 +8100,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7912,7 +8121,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7933,7 +8142,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7954,7 +8163,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7975,7 +8184,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7996,7 +8205,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8017,7 +8226,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8038,7 +8247,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8059,7 +8268,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8080,7 +8289,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8101,7 +8310,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8122,7 +8331,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8143,7 +8352,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8164,7 +8373,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8185,7 +8394,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8206,7 +8415,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8227,7 +8436,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8248,7 +8457,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8269,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8290,7 +8499,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8311,7 +8520,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8332,7 +8541,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8353,7 +8562,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8374,11 +8583,11 @@
         <v>1</v>
       </c>
       <c r="F192" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>507.18</v>
       </c>
@@ -8395,11 +8604,11 @@
         <v>1</v>
       </c>
       <c r="F193" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>508.62</v>
       </c>
@@ -8416,11 +8625,11 @@
         <v>1</v>
       </c>
       <c r="F194" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>509.63</v>
       </c>
@@ -8437,11 +8646,11 @@
         <v>1</v>
       </c>
       <c r="F195" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>511.06</v>
       </c>
@@ -8458,11 +8667,11 @@
         <v>1</v>
       </c>
       <c r="F196" t="str">
-        <f t="shared" ref="F196:F259" si="7">IF(D196=D195,"",A196)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F196:F259" si="8">IF(D196=D195,"",A196)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>512.05999999999995</v>
       </c>
@@ -8479,11 +8688,11 @@
         <v>1</v>
       </c>
       <c r="F197" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>513.39</v>
       </c>
@@ -8500,11 +8709,11 @@
         <v>1</v>
       </c>
       <c r="F198" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>514.4</v>
       </c>
@@ -8521,11 +8730,11 @@
         <v>1</v>
       </c>
       <c r="F199" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>515.84</v>
       </c>
@@ -8542,11 +8751,11 @@
         <v>1</v>
       </c>
       <c r="F200" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>516.84</v>
       </c>
@@ -8563,11 +8772,15 @@
         <v>1</v>
       </c>
       <c r="F201" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G201">
+        <f>AVERAGE(B192:B201)</f>
+        <v>24.919999999999998</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>518.28</v>
       </c>
@@ -8584,11 +8797,11 @@
         <v>1</v>
       </c>
       <c r="F202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>518.28</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>519.28</v>
       </c>
@@ -8605,11 +8818,11 @@
         <v>1</v>
       </c>
       <c r="F203" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>520.64</v>
       </c>
@@ -8626,11 +8839,11 @@
         <v>1</v>
       </c>
       <c r="F204" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>521.65</v>
       </c>
@@ -8647,11 +8860,11 @@
         <v>1</v>
       </c>
       <c r="F205" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>523.08000000000004</v>
       </c>
@@ -8668,11 +8881,11 @@
         <v>1</v>
       </c>
       <c r="F206" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>524.08000000000004</v>
       </c>
@@ -8689,11 +8902,11 @@
         <v>1</v>
       </c>
       <c r="F207" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>525.51</v>
       </c>
@@ -8710,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -8731,7 +8944,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -8752,7 +8965,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -8773,7 +8986,7 @@
         <v>1</v>
       </c>
       <c r="F211" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -8794,7 +9007,7 @@
         <v>1</v>
       </c>
       <c r="F212" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -8815,7 +9028,7 @@
         <v>1</v>
       </c>
       <c r="F213" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -8836,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="F214" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -8857,7 +9070,7 @@
         <v>1</v>
       </c>
       <c r="F215" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -8878,7 +9091,7 @@
         <v>1</v>
       </c>
       <c r="F216" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -8899,7 +9112,7 @@
         <v>1</v>
       </c>
       <c r="F217" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -8920,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="F218" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -8941,7 +9154,7 @@
         <v>1</v>
       </c>
       <c r="F219" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -8962,7 +9175,7 @@
         <v>1</v>
       </c>
       <c r="F220" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -8983,7 +9196,7 @@
         <v>1</v>
       </c>
       <c r="F221" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -9004,7 +9217,7 @@
         <v>1</v>
       </c>
       <c r="F222" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -9025,7 +9238,7 @@
         <v>1</v>
       </c>
       <c r="F223" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -9046,7 +9259,7 @@
         <v>1</v>
       </c>
       <c r="F224" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -9067,7 +9280,7 @@
         <v>1</v>
       </c>
       <c r="F225" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -9088,7 +9301,7 @@
         <v>1</v>
       </c>
       <c r="F226" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -9109,7 +9322,7 @@
         <v>1</v>
       </c>
       <c r="F227" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -9130,7 +9343,7 @@
         <v>1</v>
       </c>
       <c r="F228" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -9151,7 +9364,7 @@
         <v>1</v>
       </c>
       <c r="F229" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -9172,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="F230" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -9193,7 +9406,7 @@
         <v>1</v>
       </c>
       <c r="F231" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -9214,7 +9427,7 @@
         <v>1</v>
       </c>
       <c r="F232" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -9235,7 +9448,7 @@
         <v>1</v>
       </c>
       <c r="F233" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -9256,7 +9469,7 @@
         <v>1</v>
       </c>
       <c r="F234" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -9277,7 +9490,7 @@
         <v>1</v>
       </c>
       <c r="F235" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -9298,7 +9511,7 @@
         <v>1</v>
       </c>
       <c r="F236" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -9319,7 +9532,7 @@
         <v>1</v>
       </c>
       <c r="F237" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -9340,7 +9553,7 @@
         <v>1</v>
       </c>
       <c r="F238" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -9361,7 +9574,7 @@
         <v>1</v>
       </c>
       <c r="F239" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -9382,11 +9595,11 @@
         <v>1</v>
       </c>
       <c r="F240" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>567.85</v>
       </c>
@@ -9403,11 +9616,11 @@
         <v>1</v>
       </c>
       <c r="F241" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>569.28</v>
       </c>
@@ -9424,11 +9637,11 @@
         <v>1</v>
       </c>
       <c r="F242" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>570.28</v>
       </c>
@@ -9445,11 +9658,11 @@
         <v>1</v>
       </c>
       <c r="F243" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>571.72</v>
       </c>
@@ -9466,11 +9679,11 @@
         <v>1</v>
       </c>
       <c r="F244" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>572.72</v>
       </c>
@@ -9487,11 +9700,11 @@
         <v>1</v>
       </c>
       <c r="F245" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>574.15</v>
       </c>
@@ -9508,11 +9721,15 @@
         <v>1</v>
       </c>
       <c r="F246" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G246">
+        <f>AVERAGE(B237:B246)</f>
+        <v>23.24</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>575.15</v>
       </c>
@@ -9529,11 +9746,11 @@
         <v>1</v>
       </c>
       <c r="F247">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>575.15</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>576.48</v>
       </c>
@@ -9550,11 +9767,11 @@
         <v>1</v>
       </c>
       <c r="F248" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>577.48</v>
       </c>
@@ -9571,11 +9788,11 @@
         <v>1</v>
       </c>
       <c r="F249" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>578.91</v>
       </c>
@@ -9592,11 +9809,11 @@
         <v>1</v>
       </c>
       <c r="F250" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>579.91</v>
       </c>
@@ -9613,11 +9830,11 @@
         <v>1</v>
       </c>
       <c r="F251" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>581.35</v>
       </c>
@@ -9634,11 +9851,11 @@
         <v>1</v>
       </c>
       <c r="F252" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>582.35</v>
       </c>
@@ -9655,11 +9872,11 @@
         <v>1</v>
       </c>
       <c r="F253" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>583.78</v>
       </c>
@@ -9676,11 +9893,11 @@
         <v>1</v>
       </c>
       <c r="F254" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>584.78</v>
       </c>
@@ -9697,11 +9914,11 @@
         <v>1</v>
       </c>
       <c r="F255" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>586.21</v>
       </c>
@@ -9718,7 +9935,7 @@
         <v>1</v>
       </c>
       <c r="F256" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -9739,7 +9956,7 @@
         <v>1</v>
       </c>
       <c r="F257" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -9760,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="F258" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -9781,7 +9998,7 @@
         <v>1</v>
       </c>
       <c r="F259" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -9802,7 +10019,7 @@
         <v>1</v>
       </c>
       <c r="F260" t="str">
-        <f t="shared" ref="F260:F323" si="8">IF(D260=D259,"",A260)</f>
+        <f t="shared" ref="F260:F323" si="9">IF(D260=D259,"",A260)</f>
         <v/>
       </c>
     </row>
@@ -9823,7 +10040,7 @@
         <v>1</v>
       </c>
       <c r="F261" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -9844,7 +10061,7 @@
         <v>1</v>
       </c>
       <c r="F262" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -9865,7 +10082,7 @@
         <v>1</v>
       </c>
       <c r="F263" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -9886,7 +10103,7 @@
         <v>1</v>
       </c>
       <c r="F264" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -9907,7 +10124,7 @@
         <v>1</v>
       </c>
       <c r="F265" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -9928,7 +10145,7 @@
         <v>1</v>
       </c>
       <c r="F266" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -9949,7 +10166,7 @@
         <v>1</v>
       </c>
       <c r="F267" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -9970,7 +10187,7 @@
         <v>1</v>
       </c>
       <c r="F268" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -9991,7 +10208,7 @@
         <v>1</v>
       </c>
       <c r="F269" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10012,7 +10229,7 @@
         <v>1</v>
       </c>
       <c r="F270" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10033,7 +10250,7 @@
         <v>1</v>
       </c>
       <c r="F271" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10054,11 +10271,11 @@
         <v>1</v>
       </c>
       <c r="F272" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>606.72</v>
       </c>
@@ -10075,11 +10292,11 @@
         <v>1</v>
       </c>
       <c r="F273" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>608.16</v>
       </c>
@@ -10096,11 +10313,11 @@
         <v>1</v>
       </c>
       <c r="F274" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>609.16</v>
       </c>
@@ -10117,11 +10334,11 @@
         <v>1</v>
       </c>
       <c r="F275" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>610.59</v>
       </c>
@@ -10138,11 +10355,11 @@
         <v>1</v>
       </c>
       <c r="F276" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>611.6</v>
       </c>
@@ -10159,11 +10376,11 @@
         <v>1</v>
       </c>
       <c r="F277" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>613.03</v>
       </c>
@@ -10180,11 +10397,11 @@
         <v>1</v>
       </c>
       <c r="F278" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>614.03</v>
       </c>
@@ -10201,11 +10418,11 @@
         <v>1</v>
       </c>
       <c r="F279" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>615.46</v>
       </c>
@@ -10222,11 +10439,11 @@
         <v>1</v>
       </c>
       <c r="F280" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>616.46</v>
       </c>
@@ -10243,11 +10460,11 @@
         <v>1</v>
       </c>
       <c r="F281" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>617.82000000000005</v>
       </c>
@@ -10264,11 +10481,11 @@
         <v>1</v>
       </c>
       <c r="F282" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>618.82000000000005</v>
       </c>
@@ -10285,11 +10502,15 @@
         <v>1</v>
       </c>
       <c r="F283" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G283">
+        <f>AVERAGE(B274:B283)</f>
+        <v>23.980000000000004</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>620.26</v>
       </c>
@@ -10306,11 +10527,11 @@
         <v>1</v>
       </c>
       <c r="F284">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>620.26</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>621.27</v>
       </c>
@@ -10327,11 +10548,11 @@
         <v>1</v>
       </c>
       <c r="F285" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>622.71</v>
       </c>
@@ -10348,11 +10569,11 @@
         <v>1</v>
       </c>
       <c r="F286" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>623.71</v>
       </c>
@@ -10369,11 +10590,11 @@
         <v>1</v>
       </c>
       <c r="F287" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>625.15</v>
       </c>
@@ -10390,7 +10611,7 @@
         <v>1</v>
       </c>
       <c r="F288" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10411,7 +10632,7 @@
         <v>1</v>
       </c>
       <c r="F289" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10432,7 +10653,7 @@
         <v>1</v>
       </c>
       <c r="F290" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10453,7 +10674,7 @@
         <v>1</v>
       </c>
       <c r="F291" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10474,7 +10695,7 @@
         <v>1</v>
       </c>
       <c r="F292" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10495,7 +10716,7 @@
         <v>1</v>
       </c>
       <c r="F293" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10516,7 +10737,7 @@
         <v>1</v>
       </c>
       <c r="F294" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10537,7 +10758,7 @@
         <v>1</v>
       </c>
       <c r="F295" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10558,7 +10779,7 @@
         <v>1</v>
       </c>
       <c r="F296" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10579,7 +10800,7 @@
         <v>1</v>
       </c>
       <c r="F297" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10600,7 +10821,7 @@
         <v>1</v>
       </c>
       <c r="F298" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10621,7 +10842,7 @@
         <v>1</v>
       </c>
       <c r="F299" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10642,7 +10863,7 @@
         <v>1</v>
       </c>
       <c r="F300" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10663,7 +10884,7 @@
         <v>1</v>
       </c>
       <c r="F301" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10684,7 +10905,7 @@
         <v>1</v>
       </c>
       <c r="F302" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10705,7 +10926,7 @@
         <v>1</v>
       </c>
       <c r="F303" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10726,7 +10947,7 @@
         <v>1</v>
       </c>
       <c r="F304" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10747,7 +10968,7 @@
         <v>1</v>
       </c>
       <c r="F305" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10768,7 +10989,7 @@
         <v>1</v>
       </c>
       <c r="F306" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10789,7 +11010,7 @@
         <v>1</v>
       </c>
       <c r="F307" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10810,7 +11031,7 @@
         <v>1</v>
       </c>
       <c r="F308" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10831,7 +11052,7 @@
         <v>1</v>
       </c>
       <c r="F309" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10852,7 +11073,7 @@
         <v>1</v>
       </c>
       <c r="F310" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10873,7 +11094,7 @@
         <v>1</v>
       </c>
       <c r="F311" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10894,7 +11115,7 @@
         <v>1</v>
       </c>
       <c r="F312" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10915,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="F313" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10936,7 +11157,7 @@
         <v>1</v>
       </c>
       <c r="F314" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10957,7 +11178,7 @@
         <v>1</v>
       </c>
       <c r="F315" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10978,7 +11199,7 @@
         <v>1</v>
       </c>
       <c r="F316" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10999,7 +11220,7 @@
         <v>1</v>
       </c>
       <c r="F317" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11020,7 +11241,7 @@
         <v>1</v>
       </c>
       <c r="F318" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11041,7 +11262,7 @@
         <v>1</v>
       </c>
       <c r="F319" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11062,11 +11283,11 @@
         <v>1</v>
       </c>
       <c r="F320" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>667.53</v>
       </c>
@@ -11083,11 +11304,11 @@
         <v>1</v>
       </c>
       <c r="F321" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>668.96</v>
       </c>
@@ -11104,11 +11325,11 @@
         <v>1</v>
       </c>
       <c r="F322" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>669.96</v>
       </c>
@@ -11125,11 +11346,11 @@
         <v>1</v>
       </c>
       <c r="F323" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>671.39</v>
       </c>
@@ -11146,11 +11367,15 @@
         <v>1</v>
       </c>
       <c r="F324" t="str">
-        <f t="shared" ref="F324:F387" si="9">IF(D324=D323,"",A324)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F324:F387" si="10">IF(D324=D323,"",A324)</f>
+        <v/>
+      </c>
+      <c r="G324">
+        <f>AVERAGE(B315:B324)</f>
+        <v>22.360000000000003</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>672.39</v>
       </c>
@@ -11167,11 +11392,11 @@
         <v>1</v>
       </c>
       <c r="F325">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>672.39</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>673.82</v>
       </c>
@@ -11188,11 +11413,11 @@
         <v>1</v>
       </c>
       <c r="F326" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>674.82</v>
       </c>
@@ -11209,11 +11434,11 @@
         <v>1</v>
       </c>
       <c r="F327" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>676.25</v>
       </c>
@@ -11230,11 +11455,11 @@
         <v>1</v>
       </c>
       <c r="F328" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>677.25</v>
       </c>
@@ -11251,11 +11476,11 @@
         <v>1</v>
       </c>
       <c r="F329" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>678.68</v>
       </c>
@@ -11272,11 +11497,11 @@
         <v>1</v>
       </c>
       <c r="F330" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>679.68</v>
       </c>
@@ -11293,11 +11518,11 @@
         <v>1</v>
       </c>
       <c r="F331" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>681.11</v>
       </c>
@@ -11314,11 +11539,11 @@
         <v>1</v>
       </c>
       <c r="F332" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>682.11</v>
       </c>
@@ -11335,11 +11560,11 @@
         <v>1</v>
       </c>
       <c r="F333" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>683.54</v>
       </c>
@@ -11356,11 +11581,11 @@
         <v>1</v>
       </c>
       <c r="F334" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>684.54</v>
       </c>
@@ -11377,11 +11602,11 @@
         <v>1</v>
       </c>
       <c r="F335" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>685.97</v>
       </c>
@@ -11398,7 +11623,7 @@
         <v>1</v>
       </c>
       <c r="F336" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -11419,7 +11644,7 @@
         <v>1</v>
       </c>
       <c r="F337" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -11440,7 +11665,7 @@
         <v>1</v>
       </c>
       <c r="F338" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -11461,7 +11686,7 @@
         <v>1</v>
       </c>
       <c r="F339" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -11482,7 +11707,7 @@
         <v>1</v>
       </c>
       <c r="F340" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -11503,7 +11728,7 @@
         <v>1</v>
       </c>
       <c r="F341" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -11524,7 +11749,7 @@
         <v>1</v>
       </c>
       <c r="F342" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -11545,7 +11770,7 @@
         <v>1</v>
       </c>
       <c r="F343" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -11566,7 +11791,7 @@
         <v>1</v>
       </c>
       <c r="F344" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -11587,7 +11812,7 @@
         <v>1</v>
       </c>
       <c r="F345" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -11608,7 +11833,7 @@
         <v>1</v>
       </c>
       <c r="F346" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -11629,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="F347" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -11650,7 +11875,7 @@
         <v>1</v>
       </c>
       <c r="F348" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -11671,7 +11896,7 @@
         <v>1</v>
       </c>
       <c r="F349" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -11692,7 +11917,7 @@
         <v>1</v>
       </c>
       <c r="F350" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -11713,7 +11938,7 @@
         <v>1</v>
       </c>
       <c r="F351" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -11734,11 +11959,11 @@
         <v>1</v>
       </c>
       <c r="F352" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>706.45</v>
       </c>
@@ -11755,11 +11980,11 @@
         <v>1</v>
       </c>
       <c r="F353" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>707.88</v>
       </c>
@@ -11776,11 +12001,11 @@
         <v>1</v>
       </c>
       <c r="F354" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>708.88</v>
       </c>
@@ -11797,11 +12022,11 @@
         <v>1</v>
       </c>
       <c r="F355" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>710.32</v>
       </c>
@@ -11818,11 +12043,11 @@
         <v>1</v>
       </c>
       <c r="F356" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>711.32</v>
       </c>
@@ -11839,11 +12064,11 @@
         <v>1</v>
       </c>
       <c r="F357" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>712.75</v>
       </c>
@@ -11860,11 +12085,11 @@
         <v>1</v>
       </c>
       <c r="F358" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>713.75</v>
       </c>
@@ -11881,11 +12106,11 @@
         <v>1</v>
       </c>
       <c r="F359" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>715.19</v>
       </c>
@@ -11902,11 +12127,11 @@
         <v>1</v>
       </c>
       <c r="F360" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>716.19</v>
       </c>
@@ -11923,11 +12148,11 @@
         <v>1</v>
       </c>
       <c r="F361" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>717.62</v>
       </c>
@@ -11944,11 +12169,11 @@
         <v>1</v>
       </c>
       <c r="F362" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>718.62</v>
       </c>
@@ -11965,229 +12190,239 @@
         <v>1</v>
       </c>
       <c r="F363" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G363">
+        <f>AVERAGE(B354:B363)</f>
+        <v>23.52</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>718.62</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
       <c r="F364">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>718.62</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F365" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F366" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F367" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F368" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F369" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F370" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F371" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F372" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F373" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F374" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F375" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F376" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F377" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F378" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F379" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F380" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F381" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F382" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F383" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F384" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F385" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F386" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F387" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F388" t="str">
-        <f t="shared" ref="F388:F400" si="10">IF(D388=D387,"",A388)</f>
+        <f t="shared" ref="F388:F400" si="11">IF(D388=D387,"",A388)</f>
         <v/>
       </c>
     </row>
     <row r="389" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F389" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="390" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F390" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="391" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F391" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F392" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F393" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F394" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F395" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F396" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F397" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F398" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F399" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F400" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12247,6 +12482,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>